--- a/data/trans_dic/P6907S1-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P6907S1-Edad-trans_dic.xlsx
@@ -742,30 +742,30 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.09874032361505963</v>
+        <v>0.1047387081065434</v>
       </c>
       <c r="D6" s="5" t="inlineStr"/>
       <c r="E6" s="5" t="n">
-        <v>0.2472654815999665</v>
+        <v>0.2407394525109264</v>
       </c>
       <c r="F6" s="5" t="inlineStr"/>
       <c r="G6" s="5" t="n">
-        <v>0.216732527146001</v>
+        <v>0.2464242957395339</v>
       </c>
       <c r="H6" s="5" t="inlineStr"/>
       <c r="I6" s="5" t="inlineStr"/>
       <c r="J6" s="5" t="n">
-        <v>0.5646071809071311</v>
+        <v>0.6310460198928669</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.0846812772626756</v>
+        <v>0.08813953171530334</v>
       </c>
       <c r="L6" s="5" t="inlineStr"/>
       <c r="M6" s="5" t="n">
-        <v>0.1773422598678195</v>
+        <v>0.1716606478763926</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.4034748002632423</v>
+        <v>0.3429365261685351</v>
       </c>
     </row>
     <row r="7">
@@ -813,7 +813,7 @@
         <v>0.05050678254170067</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.108143104134254</v>
+        <v>0.1081431041342539</v>
       </c>
     </row>
     <row r="8">
@@ -824,19 +824,19 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09818815785966936</v>
+        <v>0.09453423890380347</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.02129974571799176</v>
+        <v>0.02063112710607067</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.01228106156097606</v>
+        <v>0.01260129428506902</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01700309637839733</v>
+        <v>0.01726192709623016</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.06784885865457765</v>
+        <v>0.07954729060938769</v>
       </c>
       <c r="H8" s="5" t="n">
         <v>0</v>
@@ -845,19 +845,19 @@
         <v>0</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04191187286715908</v>
+        <v>0.04062458438364748</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.0999545307519568</v>
+        <v>0.09956122046971895</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.01334018503161112</v>
+        <v>0.01355574854212293</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01803342890342929</v>
+        <v>0.02201396366748629</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.04477408157978523</v>
+        <v>0.04636668685029955</v>
       </c>
     </row>
     <row r="9">
@@ -868,40 +868,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2336078596075226</v>
+        <v>0.2272234094575099</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1952610568764116</v>
+        <v>0.1774281370564876</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.130341048812127</v>
+        <v>0.1272049911842312</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3083551189260377</v>
+        <v>0.2699174497832916</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.2268018330478309</v>
+        <v>0.2459207694468731</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1681357080651106</v>
+        <v>0.1627988505899232</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1993139348545898</v>
+        <v>0.1582419982972404</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.2422897569187673</v>
+        <v>0.2424810848682434</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.207357211872556</v>
+        <v>0.2041531849162367</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1251822698942545</v>
+        <v>0.1218663153329933</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1042179568063449</v>
+        <v>0.1068157989273473</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.2099012910008413</v>
+        <v>0.215498654107518</v>
       </c>
     </row>
     <row r="10">
@@ -937,7 +937,7 @@
         <v>0.01141010567511721</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>0.09117172110627972</v>
+        <v>0.0911717211062797</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>0.07437518929386337</v>
@@ -960,19 +960,19 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03170023346252323</v>
+        <v>0.03578253699742481</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02371566856040695</v>
+        <v>0.02342231391022569</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.008286052294515163</v>
+        <v>0.008382162247559109</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.071665570077995</v>
+        <v>0.07129683545388436</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.03050689736803177</v>
+        <v>0.02872593712504539</v>
       </c>
       <c r="H11" s="5" t="n">
         <v>0</v>
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.04936136671456992</v>
+        <v>0.04929623669527971</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.04484286061859994</v>
+        <v>0.04437947262908389</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.02941982700464096</v>
+        <v>0.03181440324158712</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.009519372148727863</v>
+        <v>0.009153135317319851</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.07135488941104282</v>
+        <v>0.07545005659830352</v>
       </c>
     </row>
     <row r="12">
@@ -1004,40 +1004,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1197666095856325</v>
+        <v>0.1201700015056364</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2203095741455435</v>
+        <v>0.19963937994905</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.08563391544245008</v>
+        <v>0.08315141861248716</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2022788539484269</v>
+        <v>0.2054551446343082</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1743009796445513</v>
+        <v>0.1710903193193292</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.1421850345939043</v>
+        <v>0.1587254642252824</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.05762686472827636</v>
+        <v>0.06802962160197416</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.153930280255492</v>
+        <v>0.1577864632297967</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1213948342322553</v>
+        <v>0.1139894774513161</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1397906300156522</v>
+        <v>0.1365210773883299</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.05939093389453017</v>
+        <v>0.05172701768023928</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.1571086068929045</v>
+        <v>0.1620944341646309</v>
       </c>
     </row>
     <row r="13">
@@ -1061,7 +1061,7 @@
         <v>0.03656591431861438</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.07635469766260754</v>
+        <v>0.07635469766260755</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.1123292875288822</v>
@@ -1073,7 +1073,7 @@
         <v>0.01828173570196403</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.0744139313483935</v>
+        <v>0.07441393134839351</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.08619638271311189</v>
@@ -1085,7 +1085,7 @@
         <v>0.02961248737151757</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07536080472517653</v>
+        <v>0.07536080472517652</v>
       </c>
     </row>
     <row r="14">
@@ -1096,34 +1096,34 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.03658921913865404</v>
+        <v>0.03531708655643101</v>
       </c>
       <c r="D14" s="5" t="inlineStr"/>
       <c r="E14" s="5" t="n">
-        <v>0.0117574659376189</v>
+        <v>0.01182680987544562</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.03602946753824317</v>
+        <v>0.03519951626955958</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.02727114945188889</v>
+        <v>0.03142310511935256</v>
       </c>
       <c r="H14" s="5" t="inlineStr"/>
       <c r="I14" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04532389085384825</v>
+        <v>0.04311675000643397</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.04483924822675986</v>
+        <v>0.04623366484389496</v>
       </c>
       <c r="L14" s="5" t="inlineStr"/>
       <c r="M14" s="5" t="n">
-        <v>0.007456401014207577</v>
+        <v>0.007424255712319263</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.04809479624626919</v>
+        <v>0.04821850439223897</v>
       </c>
     </row>
     <row r="15">
@@ -1134,34 +1134,34 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1543746271757876</v>
+        <v>0.1485460211839041</v>
       </c>
       <c r="D15" s="5" t="inlineStr"/>
       <c r="E15" s="5" t="n">
-        <v>0.09811108666605571</v>
+        <v>0.09746540372143729</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1440354568004396</v>
+        <v>0.1450103776869396</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2412472904408332</v>
+        <v>0.2544037636612427</v>
       </c>
       <c r="H15" s="5" t="inlineStr"/>
       <c r="I15" s="5" t="n">
-        <v>0.09401980212288263</v>
+        <v>0.09324724330914116</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1251931401817347</v>
+        <v>0.1200458196188087</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1430884076154859</v>
+        <v>0.1364276979789926</v>
       </c>
       <c r="L15" s="5" t="inlineStr"/>
       <c r="M15" s="5" t="n">
-        <v>0.07235627595793237</v>
+        <v>0.07118524876338381</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.1156765794920032</v>
+        <v>0.1106332901029583</v>
       </c>
     </row>
     <row r="16">
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.1281711851773456</v>
+        <v>0.1281711851773457</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.07157659982652274</v>
@@ -1220,14 +1220,14 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.0204957880968023</v>
+        <v>0.02050249651795463</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="inlineStr"/>
       <c r="F17" s="5" t="n">
-        <v>0.06928596077729128</v>
+        <v>0.06278783046957964</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>0</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.05018903560314972</v>
+        <v>0.05277054944564396</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.03165336641079065</v>
+        <v>0.03110829838172811</v>
       </c>
       <c r="L17" s="5" t="n">
         <v>0</v>
@@ -1249,7 +1249,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.07272255113403187</v>
+        <v>0.07454723002463207</v>
       </c>
     </row>
     <row r="18">
@@ -1260,36 +1260,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1861455520975524</v>
+        <v>0.1868149267551059</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2495773241192198</v>
+        <v>0.2249820447959672</v>
       </c>
       <c r="E18" s="5" t="inlineStr"/>
       <c r="F18" s="5" t="n">
-        <v>0.2198556256395282</v>
+        <v>0.2118785941123675</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3347186236493067</v>
+        <v>0.3267713528571469</v>
       </c>
       <c r="H18" s="5" t="inlineStr"/>
       <c r="I18" s="5" t="n">
-        <v>0.1639134394262104</v>
+        <v>0.1486796164663827</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1734883644211742</v>
+        <v>0.1780433230548929</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1791255093979311</v>
+        <v>0.1619100226574613</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.1654596748468741</v>
+        <v>0.1641130382314339</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.0734720584151862</v>
+        <v>0.07331073908785433</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.1664438422015624</v>
+        <v>0.1710485135237266</v>
       </c>
     </row>
     <row r="19">
@@ -1325,7 +1325,7 @@
         <v>0.02466260171940221</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.0930011943178546</v>
+        <v>0.09300119431785459</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.09706912860001349</v>
@@ -1337,7 +1337,7 @@
         <v>0.03107256279413963</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.09859468422985404</v>
+        <v>0.09859468422985405</v>
       </c>
     </row>
     <row r="20">
@@ -1348,40 +1348,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.06913572457270538</v>
+        <v>0.06721882422434443</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.02726088378649663</v>
+        <v>0.02646766334132671</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01928503967461251</v>
+        <v>0.01756706258717588</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.07508073457716644</v>
+        <v>0.07172814440834813</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.07155843227762516</v>
+        <v>0.074898073833478</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.008967359125121237</v>
+        <v>0.00029510510445514</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.008903274207891901</v>
+        <v>0.008716335414728993</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.06756242123815775</v>
+        <v>0.06678987972572774</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.07582522091171168</v>
+        <v>0.0753868709165062</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.02353232510261353</v>
+        <v>0.02331544189016896</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01915936545519582</v>
+        <v>0.01838888204597694</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.07828796779680422</v>
+        <v>0.0783738043201891</v>
       </c>
     </row>
     <row r="21">
@@ -1392,40 +1392,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.1269570171588757</v>
+        <v>0.1228715741606439</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.1063297267122749</v>
+        <v>0.1005730843511929</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.05647942569834288</v>
+        <v>0.06052529138787869</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1492238233511179</v>
+        <v>0.1416208733048175</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1528638663928821</v>
+        <v>0.1551129796159994</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.07968909856953987</v>
+        <v>0.08431024124503823</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.054498297357329</v>
+        <v>0.05589473092014268</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1256912531364117</v>
+        <v>0.1224636872196535</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.1241875076940045</v>
+        <v>0.1210518082130286</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.07524345528342215</v>
+        <v>0.0725616077773812</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04734982945718486</v>
+        <v>0.04943962496691168</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.1243406044718341</v>
+        <v>0.1268568491459049</v>
       </c>
     </row>
     <row r="22">
@@ -1731,30 +1731,30 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4559</v>
+        <v>4836</v>
       </c>
       <c r="D7" s="6" t="inlineStr"/>
       <c r="E7" s="6" t="n">
-        <v>4241</v>
+        <v>4129</v>
       </c>
       <c r="F7" s="6" t="inlineStr"/>
       <c r="G7" s="6" t="n">
-        <v>4304</v>
+        <v>4894</v>
       </c>
       <c r="H7" s="6" t="inlineStr"/>
       <c r="I7" s="6" t="inlineStr"/>
       <c r="J7" s="6" t="n">
-        <v>8977</v>
+        <v>10033</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>5592</v>
+        <v>5820</v>
       </c>
       <c r="L7" s="6" t="inlineStr"/>
       <c r="M7" s="6" t="n">
-        <v>5106</v>
+        <v>4943</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>10134</v>
+        <v>8614</v>
       </c>
     </row>
     <row r="8">
@@ -1857,19 +1857,19 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>13971</v>
+        <v>13451</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>823</v>
+        <v>797</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>1002</v>
+        <v>1028</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>1183</v>
+        <v>1201</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>5379</v>
+        <v>6306</v>
       </c>
       <c r="H10" s="6" t="n">
         <v>0</v>
@@ -1878,19 +1878,19 @@
         <v>0</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>2159</v>
+        <v>2093</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>22147</v>
+        <v>22059</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>914</v>
+        <v>928</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>2306</v>
+        <v>2815</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>5422</v>
+        <v>5615</v>
       </c>
     </row>
     <row r="11">
@@ -1901,40 +1901,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>33240</v>
+        <v>32332</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7540</v>
+        <v>6852</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>10632</v>
+        <v>10376</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>21459</v>
+        <v>18784</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>17980</v>
+        <v>19495</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>5023</v>
+        <v>4863</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>9226</v>
+        <v>7325</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>12481</v>
+        <v>12491</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>45943</v>
+        <v>45233</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>8574</v>
+        <v>8347</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>13326</v>
+        <v>13658</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>25420</v>
+        <v>26098</v>
       </c>
     </row>
     <row r="12">
@@ -2037,19 +2037,19 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>3995</v>
+        <v>4510</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>1038</v>
+        <v>1025</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>937</v>
+        <v>948</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>7882</v>
+        <v>7841</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>2137</v>
+        <v>2012</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>0</v>
@@ -2058,19 +2058,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>4277</v>
+        <v>4271</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>8792</v>
+        <v>8701</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>2558</v>
+        <v>2766</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>1757</v>
+        <v>1689</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>14030</v>
+        <v>14835</v>
       </c>
     </row>
     <row r="15">
@@ -2081,40 +2081,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>15094</v>
+        <v>15145</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>9643</v>
+        <v>8738</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9687</v>
+        <v>9406</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>22246</v>
+        <v>22595</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>12208</v>
+        <v>11984</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>6139</v>
+        <v>6853</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4118</v>
+        <v>4861</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>13337</v>
+        <v>13671</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23802</v>
+        <v>22350</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>12154</v>
+        <v>11870</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>10962</v>
+        <v>9548</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>30890</v>
+        <v>31871</v>
       </c>
     </row>
     <row r="16">
@@ -2217,34 +2217,34 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>4065</v>
+        <v>3924</v>
       </c>
       <c r="D18" s="6" t="inlineStr"/>
       <c r="E18" s="6" t="n">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>4343</v>
+        <v>4243</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1010</v>
+        <v>1164</v>
       </c>
       <c r="H18" s="6" t="inlineStr"/>
       <c r="I18" s="6" t="n">
         <v>0</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>5734</v>
+        <v>5455</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>6643</v>
+        <v>6849</v>
       </c>
       <c r="L18" s="6" t="inlineStr"/>
       <c r="M18" s="6" t="n">
-        <v>1100</v>
+        <v>1095</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>11882</v>
+        <v>11912</v>
       </c>
     </row>
     <row r="19">
@@ -2255,34 +2255,34 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>17153</v>
+        <v>16505</v>
       </c>
       <c r="D19" s="6" t="inlineStr"/>
       <c r="E19" s="6" t="n">
-        <v>8970</v>
+        <v>8911</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>17361</v>
+        <v>17478</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>8935</v>
+        <v>9422</v>
       </c>
       <c r="H19" s="6" t="inlineStr"/>
       <c r="I19" s="6" t="n">
-        <v>5275</v>
+        <v>5232</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>15839</v>
+        <v>15188</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>21198</v>
+        <v>20211</v>
       </c>
       <c r="L19" s="6" t="inlineStr"/>
       <c r="M19" s="6" t="n">
-        <v>10675</v>
+        <v>10502</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>28577</v>
+        <v>27331</v>
       </c>
     </row>
     <row r="20">
@@ -2385,14 +2385,14 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="inlineStr"/>
       <c r="F22" s="6" t="n">
-        <v>4990</v>
+        <v>4522</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
@@ -2402,10 +2402,10 @@
         <v>0</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>3100</v>
+        <v>3260</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>1893</v>
+        <v>1860</v>
       </c>
       <c r="L22" s="6" t="n">
         <v>0</v>
@@ -2414,7 +2414,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>9730</v>
+        <v>9974</v>
       </c>
     </row>
     <row r="23">
@@ -2425,36 +2425,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>8541</v>
+        <v>8571</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>5168</v>
+        <v>4659</v>
       </c>
       <c r="E23" s="6" t="inlineStr"/>
       <c r="F23" s="6" t="n">
-        <v>15835</v>
+        <v>15260</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>4656</v>
+        <v>4545</v>
       </c>
       <c r="H23" s="6" t="inlineStr"/>
       <c r="I23" s="6" t="n">
-        <v>5048</v>
+        <v>4579</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>10716</v>
+        <v>10997</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>10710</v>
+        <v>9681</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>5136</v>
+        <v>5094</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>5558</v>
+        <v>5546</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>22269</v>
+        <v>22885</v>
       </c>
     </row>
     <row r="24">
@@ -2557,40 +2557,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>32596</v>
+        <v>31693</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3887</v>
+        <v>3774</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>6714</v>
+        <v>6115</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>28631</v>
+        <v>27353</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>15752</v>
+        <v>16487</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>898</v>
+        <v>30</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1926</v>
+        <v>1885</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>23129</v>
+        <v>22865</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>52441</v>
+        <v>52138</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>5712</v>
+        <v>5660</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>10814</v>
+        <v>10379</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>56655</v>
+        <v>56717</v>
       </c>
     </row>
     <row r="27">
@@ -2601,40 +2601,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>59858</v>
+        <v>57932</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>15160</v>
+        <v>14339</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>19662</v>
+        <v>21070</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>56905</v>
+        <v>54006</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>33649</v>
+        <v>34144</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>7982</v>
+        <v>8445</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>11788</v>
+        <v>12090</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>43029</v>
+        <v>41924</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>85889</v>
+        <v>83720</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>18264</v>
+        <v>17613</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>26725</v>
+        <v>27905</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>89982</v>
+        <v>91803</v>
       </c>
     </row>
     <row r="28">
